--- a/data/trans_orig/P36B07-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>78089</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64274</v>
+        <v>62794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94540</v>
+        <v>94681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1830285230776391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1506467474823062</v>
+        <v>0.147179271060239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2215866399931836</v>
+        <v>0.2219151146942802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -762,19 +762,19 @@
         <v>47200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35452</v>
+        <v>36502</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61704</v>
+        <v>60526</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1370564067604984</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1029437830581019</v>
+        <v>0.1059925600642392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1791735386267233</v>
+        <v>0.1757538205256045</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -783,19 +783,19 @@
         <v>125289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103840</v>
+        <v>105744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145178</v>
+        <v>146461</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1624951372106241</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1346759230989422</v>
+        <v>0.1371461721550402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1882898213573977</v>
+        <v>0.1899539338718294</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>63844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49423</v>
+        <v>48625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80429</v>
+        <v>79321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1496392353363432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1158384457100997</v>
+        <v>0.1139684291122934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1885111242713231</v>
+        <v>0.1859159738464226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -833,19 +833,19 @@
         <v>58770</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46181</v>
+        <v>45740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73228</v>
+        <v>73663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1706551746407972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1340973609680772</v>
+        <v>0.1328166551610834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2126380077905681</v>
+        <v>0.2139006877130633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -854,19 +854,19 @@
         <v>122614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102505</v>
+        <v>102272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145129</v>
+        <v>144453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1590259772500546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1329451512795995</v>
+        <v>0.1326423499356546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.188226646033372</v>
+        <v>0.1873493457044209</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>110686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93421</v>
+        <v>92011</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129845</v>
+        <v>129396</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2594282408729813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2189636101388607</v>
+        <v>0.2156570521747832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3043338551765501</v>
+        <v>0.303282393169215</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -904,19 +904,19 @@
         <v>80435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65661</v>
+        <v>65198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95544</v>
+        <v>96562</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2335646992222059</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1906636098016828</v>
+        <v>0.1893181687586613</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2774370803533342</v>
+        <v>0.2803915701585559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>180</v>
@@ -925,19 +925,19 @@
         <v>191121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>168286</v>
+        <v>165993</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216258</v>
+        <v>215082</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.247876323686063</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2182604152529251</v>
+        <v>0.2152865028201231</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2804774473581164</v>
+        <v>0.2789524059522838</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>78770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64148</v>
+        <v>63719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95620</v>
+        <v>97109</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1846245200771388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1503512446285348</v>
+        <v>0.1493467428018777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2241166597551919</v>
+        <v>0.2276079095361867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -975,19 +975,19 @@
         <v>71024</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56414</v>
+        <v>56944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88021</v>
+        <v>88244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2062356086783405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1638140639031836</v>
+        <v>0.1653527539997381</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2555920630893291</v>
+        <v>0.2562406254981314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -996,19 +996,19 @@
         <v>149794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125605</v>
+        <v>127903</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171540</v>
+        <v>173963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1942770846489655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1629046721942806</v>
+        <v>0.1658848296722291</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2224804251844821</v>
+        <v>0.2256226149050193</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>95263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78417</v>
+        <v>78055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114033</v>
+        <v>112941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2232794806358976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1837954747687714</v>
+        <v>0.1829471176026492</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2672749330419781</v>
+        <v>0.2647157153363456</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -1046,19 +1046,19 @@
         <v>86952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71655</v>
+        <v>70926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104159</v>
+        <v>103702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.252488110698158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.208070168026377</v>
+        <v>0.2059535331288252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3024542180982076</v>
+        <v>0.3011266357577047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>166</v>
@@ -1067,19 +1067,19 @@
         <v>182215</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>161246</v>
+        <v>158896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>208024</v>
+        <v>208179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2363254772042929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.209129938377435</v>
+        <v>0.2060815428454637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2697989207834514</v>
+        <v>0.2699992517408738</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>78068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63349</v>
+        <v>62425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94626</v>
+        <v>93713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2074599105096459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1683440557440289</v>
+        <v>0.1658878227366822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2514613519397151</v>
+        <v>0.2490329695875293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1192,19 +1192,19 @@
         <v>61500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46763</v>
+        <v>48506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76244</v>
+        <v>77992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1668347925527547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1268560643729344</v>
+        <v>0.1315843069848534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2068325232942808</v>
+        <v>0.2115719636525802</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -1213,19 +1213,19 @@
         <v>139569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118205</v>
+        <v>118325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162922</v>
+        <v>163190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1873566864187746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1586783179088713</v>
+        <v>0.158839219197979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.218706396328653</v>
+        <v>0.2190657118351097</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>83387</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66805</v>
+        <v>68934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100079</v>
+        <v>103478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2215935607481422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1775289182569862</v>
+        <v>0.1831859945125821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2659511537082854</v>
+        <v>0.2749834300172758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1263,19 +1263,19 @@
         <v>75746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60156</v>
+        <v>62420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91717</v>
+        <v>93265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2054811082260642</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1631871286365822</v>
+        <v>0.1693314576167964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2488045125207806</v>
+        <v>0.25300426440858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>149</v>
@@ -1284,19 +1284,19 @@
         <v>159133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136814</v>
+        <v>138079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>182677</v>
+        <v>182704</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2136203594383374</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1836585573413906</v>
+        <v>0.1853572755560433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.245224756019407</v>
+        <v>0.2452610998507311</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>86827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71450</v>
+        <v>69931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>105513</v>
+        <v>102222</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2307354533881355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1898728064911907</v>
+        <v>0.18583554424497</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2803901750350405</v>
+        <v>0.2716447147276171</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -1334,19 +1334,19 @@
         <v>92431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76031</v>
+        <v>73780</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109789</v>
+        <v>108814</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.250743067954293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2062539171920528</v>
+        <v>0.2001482773625972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2978305198704563</v>
+        <v>0.2951852702406131</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>168</v>
@@ -1355,19 +1355,19 @@
         <v>179258</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>155661</v>
+        <v>157270</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>204502</v>
+        <v>203901</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2406361645583542</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2089597727253229</v>
+        <v>0.211119109225852</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2745234795254523</v>
+        <v>0.2737166328394188</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>59249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46861</v>
+        <v>45199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74447</v>
+        <v>73331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1574494279867884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1245302407311209</v>
+        <v>0.1201112816281539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.197836985521272</v>
+        <v>0.1948717927490635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1405,19 +1405,19 @@
         <v>63134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49812</v>
+        <v>50639</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79129</v>
+        <v>79238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1712667585453287</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1351280158778874</v>
+        <v>0.1373717000199039</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2146573527035392</v>
+        <v>0.2149534746056541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -1426,19 +1426,19 @@
         <v>122383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101338</v>
+        <v>101856</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145327</v>
+        <v>143207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1642868947198262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1360360785268896</v>
+        <v>0.1367320621036439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1950873925027708</v>
+        <v>0.1922408170723734</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>68774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54565</v>
+        <v>54504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83219</v>
+        <v>85389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1827616473672881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1450008833773014</v>
+        <v>0.144838297794839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2211458702813568</v>
+        <v>0.2269148448456548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1476,19 +1476,19 @@
         <v>75818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61067</v>
+        <v>60638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92224</v>
+        <v>92931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2056742727215593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1656591141554483</v>
+        <v>0.1644949338918539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2501816271236663</v>
+        <v>0.2520992246779574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1497,19 +1497,19 @@
         <v>144592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123607</v>
+        <v>121974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168191</v>
+        <v>164608</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1940998948647076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1659292538229204</v>
+        <v>0.1637380264062812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2257795186543681</v>
+        <v>0.2209690856352825</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>138310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118567</v>
+        <v>117934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>159663</v>
+        <v>158959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2688036560444069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2304330878960558</v>
+        <v>0.2292034451146661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3103030368994805</v>
+        <v>0.3089358204531583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1622,19 +1622,19 @@
         <v>34020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24386</v>
+        <v>23410</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46287</v>
+        <v>46089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.20690117505229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1483071028510043</v>
+        <v>0.1423751676061071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2815039485707889</v>
+        <v>0.2803050832893387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -1643,19 +1643,19 @@
         <v>172330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149847</v>
+        <v>149870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>194686</v>
+        <v>196534</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2538126301902376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2206998325397977</v>
+        <v>0.2207332328954615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.286739091223734</v>
+        <v>0.2894610461411701</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>104147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86167</v>
+        <v>85997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123471</v>
+        <v>125482</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2024094503861562</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1674642107230679</v>
+        <v>0.1671348821174924</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2399646039667732</v>
+        <v>0.2438728614964842</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1693,19 +1693,19 @@
         <v>28304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19783</v>
+        <v>19936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39521</v>
+        <v>39438</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1721353139346067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1203181992438049</v>
+        <v>0.1212460230638258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2403592759629235</v>
+        <v>0.2398550932448989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -1714,19 +1714,19 @@
         <v>132451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111236</v>
+        <v>112787</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154500</v>
+        <v>153786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1950779128615839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1638317874304792</v>
+        <v>0.1661161365460336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2275529535382704</v>
+        <v>0.2265015512261964</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>96205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80827</v>
+        <v>78431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116194</v>
+        <v>114557</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1869744378595231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1570856170588117</v>
+        <v>0.152430852038559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2258210569500605</v>
+        <v>0.2226413737364752</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1764,19 +1764,19 @@
         <v>37819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26970</v>
+        <v>26448</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49245</v>
+        <v>48627</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2300079996050683</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1640224557045753</v>
+        <v>0.1608502780689663</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2994966009412184</v>
+        <v>0.2957385835452324</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1785,19 +1785,19 @@
         <v>134025</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113131</v>
+        <v>113229</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155357</v>
+        <v>157017</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1973959464385833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1666224886877352</v>
+        <v>0.1667671096873676</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.228815080449908</v>
+        <v>0.2312593974622893</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>92959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76366</v>
+        <v>76832</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110598</v>
+        <v>111329</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1806641043279822</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1484169774152443</v>
+        <v>0.1493225068908081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2149466801925733</v>
+        <v>0.2163661714948467</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1835,19 +1835,19 @@
         <v>35990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26527</v>
+        <v>24987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47527</v>
+        <v>47054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2188853392628951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1613318594771126</v>
+        <v>0.1519655260559188</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2890498828797508</v>
+        <v>0.2861739709839704</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -1856,19 +1856,19 @@
         <v>128949</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110466</v>
+        <v>107872</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150095</v>
+        <v>149360</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1899202037912739</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1626976478971328</v>
+        <v>0.1588775750031847</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2210652893067475</v>
+        <v>0.2199826749831441</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>82917</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68043</v>
+        <v>67127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99856</v>
+        <v>101896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1611483513819317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1322403391038529</v>
+        <v>0.1304613666590028</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1940700664407281</v>
+        <v>0.1980337220127314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -1906,19 +1906,19 @@
         <v>28293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18779</v>
+        <v>19016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38637</v>
+        <v>39701</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.17207017214514</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1142113752236702</v>
+        <v>0.1156512115342151</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2349801761195292</v>
+        <v>0.2414538816150208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -1927,19 +1927,19 @@
         <v>111210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>91498</v>
+        <v>92826</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131981</v>
+        <v>130103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1637933067183214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1347618405514772</v>
+        <v>0.1367166453806172</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1943863969115753</v>
+        <v>0.1916201860242644</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>297813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>270158</v>
+        <v>268314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>329180</v>
+        <v>324941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2602281870101561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2360636411928872</v>
+        <v>0.234451649556542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2876362567854187</v>
+        <v>0.283932567015119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2052,19 +2052,19 @@
         <v>193255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169236</v>
+        <v>167353</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>218682</v>
+        <v>216164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2356973341099881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2064036153331746</v>
+        <v>0.2041070795729146</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2667092264275341</v>
+        <v>0.2636382515561722</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>474</v>
@@ -2073,19 +2073,19 @@
         <v>491068</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>452795</v>
+        <v>453051</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>530169</v>
+        <v>529527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2499889435016925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2305053654676807</v>
+        <v>0.2306358214308165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2698944643928185</v>
+        <v>0.2695672523122742</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>230338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205018</v>
+        <v>205622</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>260048</v>
+        <v>261242</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2012687784121598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1791445541382775</v>
+        <v>0.1796718941596148</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2272292489658052</v>
+        <v>0.2282725844882177</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -2123,19 +2123,19 @@
         <v>119847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99446</v>
+        <v>99048</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>140812</v>
+        <v>141339</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1461671449254938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1212861881712263</v>
+        <v>0.120801180428508</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1717373395161976</v>
+        <v>0.1723796739632937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>339</v>
@@ -2144,19 +2144,19 @@
         <v>350185</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>318906</v>
+        <v>315864</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>384031</v>
+        <v>385817</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1782692094497524</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1623461267907325</v>
+        <v>0.1607974499731881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1954996392950076</v>
+        <v>0.1964086244222003</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>233816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>205881</v>
+        <v>206008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>260208</v>
+        <v>262380</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2043081334731409</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1798980978689854</v>
+        <v>0.180009606585168</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2273693073474269</v>
+        <v>0.2292672778434561</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>172</v>
@@ -2194,19 +2194,19 @@
         <v>177513</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>152247</v>
+        <v>155076</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201874</v>
+        <v>201271</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2164978240673604</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1856838103390028</v>
+        <v>0.1891337301709864</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2462089005803555</v>
+        <v>0.2454734441915125</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>393</v>
@@ -2215,19 +2215,19 @@
         <v>411329</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>374004</v>
+        <v>378371</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>448313</v>
+        <v>452450</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2093961428788875</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1903952372151967</v>
+        <v>0.1926179534404514</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2282235740202409</v>
+        <v>0.2303295601261312</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>213949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>188689</v>
+        <v>188320</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>240538</v>
+        <v>242619</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1869484299971698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1648757706735662</v>
+        <v>0.1645531946702502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2101813294145761</v>
+        <v>0.2119999570158166</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -2265,19 +2265,19 @@
         <v>155800</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134692</v>
+        <v>134288</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>180723</v>
+        <v>179341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1900161182198501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1642730150114173</v>
+        <v>0.1637797005618175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.220413033412664</v>
+        <v>0.2187283293671396</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>361</v>
@@ -2286,19 +2286,19 @@
         <v>369749</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>338676</v>
+        <v>334948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>405939</v>
+        <v>406347</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1882288912533642</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1724105716919862</v>
+        <v>0.1705126735871261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2066525031128021</v>
+        <v>0.2068597606006954</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>168513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>146243</v>
+        <v>144731</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>194770</v>
+        <v>194930</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1472464711073734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1277866042128641</v>
+        <v>0.1264651909519598</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1701895695296092</v>
+        <v>0.1703292037675938</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>166</v>
@@ -2336,19 +2336,19 @@
         <v>173514</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>149742</v>
+        <v>151698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>198728</v>
+        <v>197772</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2116215786773076</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1826279622910982</v>
+        <v>0.1850134834866018</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2423725602826287</v>
+        <v>0.2412065592258599</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>323</v>
@@ -2357,19 +2357,19 @@
         <v>342028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>308507</v>
+        <v>310887</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>377287</v>
+        <v>378245</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1741168129163033</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1570525213115404</v>
+        <v>0.158263875224756</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1920662204374126</v>
+        <v>0.1925538659043274</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>180287</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>159378</v>
+        <v>159929</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>205301</v>
+        <v>205515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2965662988926139</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.262172744162054</v>
+        <v>0.2630786735868837</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3377152421631858</v>
+        <v>0.3380671994983738</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>190</v>
@@ -2482,19 +2482,19 @@
         <v>197478</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>171964</v>
+        <v>174484</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>219931</v>
+        <v>223040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2687641382594739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2340398150714051</v>
+        <v>0.2374697991325437</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2993220140382742</v>
+        <v>0.3035535457148055</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>365</v>
@@ -2503,19 +2503,19 @@
         <v>377765</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>346261</v>
+        <v>347590</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>413617</v>
+        <v>412750</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2813518967200773</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2578882400843231</v>
+        <v>0.2588781640859393</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3080542411680097</v>
+        <v>0.3074085023330276</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>117592</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100342</v>
+        <v>98913</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138120</v>
+        <v>136977</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1934347737351624</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1650593645971805</v>
+        <v>0.1627093632716325</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.22720354932019</v>
+        <v>0.2253235536200267</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>139</v>
@@ -2553,19 +2553,19 @@
         <v>145454</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>124016</v>
+        <v>123273</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>168668</v>
+        <v>166330</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1979599944007711</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1687834792382004</v>
+        <v>0.1677718751837599</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2295535330231349</v>
+        <v>0.2263716216288098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>254</v>
@@ -2574,19 +2574,19 @@
         <v>263045</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>234241</v>
+        <v>238118</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>291423</v>
+        <v>295361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1959111469938644</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1744579415267146</v>
+        <v>0.1773456295537609</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2170463341096617</v>
+        <v>0.2199788829515965</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>125376</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>106569</v>
+        <v>106065</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146744</v>
+        <v>146247</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2062405191898596</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1753031966490379</v>
+        <v>0.1744742212416785</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2413903740921885</v>
+        <v>0.2405728296928873</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>142</v>
@@ -2624,19 +2624,19 @@
         <v>150706</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>130339</v>
+        <v>128589</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>175558</v>
+        <v>174836</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2051075136833329</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1773886491365264</v>
+        <v>0.1750076094364547</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2389314087751731</v>
+        <v>0.2379485346729055</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>265</v>
@@ -2645,19 +2645,19 @@
         <v>276082</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>244750</v>
+        <v>246599</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>305890</v>
+        <v>306903</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2056204953842476</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.182285432866356</v>
+        <v>0.1836623466015184</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2278208248622499</v>
+        <v>0.2285755838817525</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>100090</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>84080</v>
+        <v>81736</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>120759</v>
+        <v>119691</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1646449600644752</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1383085200147837</v>
+        <v>0.1344536187913801</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1986443999704997</v>
+        <v>0.1968881653950267</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>136</v>
@@ -2695,19 +2695,19 @@
         <v>145908</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>124051</v>
+        <v>123989</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>169448</v>
+        <v>168053</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1985775337230694</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1688316881555576</v>
+        <v>0.1687466995933548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2306154062716152</v>
+        <v>0.228716678658553</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>229</v>
@@ -2716,19 +2716,19 @@
         <v>245997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>217338</v>
+        <v>218792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>276353</v>
+        <v>274866</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.183214157948171</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1618688141393539</v>
+        <v>0.1629520219516649</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2058223555030525</v>
+        <v>0.2047149763790301</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>84569</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>69141</v>
+        <v>68889</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>104442</v>
+        <v>103537</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1391134481178889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1137352520036367</v>
+        <v>0.1133202321698671</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1718043005067113</v>
+        <v>0.170315017620399</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>89</v>
@@ -2766,19 +2766,19 @@
         <v>95219</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>77895</v>
+        <v>77151</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>116205</v>
+        <v>113806</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1295908199333527</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1060142685330267</v>
+        <v>0.1050010841910201</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.158153067666561</v>
+        <v>0.1548872155580286</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>169</v>
@@ -2787,19 +2787,19 @@
         <v>179788</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>155668</v>
+        <v>156618</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>207378</v>
+        <v>208202</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1339023029536397</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1159387899063297</v>
+        <v>0.1166461105705118</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1544509484504407</v>
+        <v>0.1550646639296244</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>50925</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38740</v>
+        <v>38999</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>64887</v>
+        <v>62943</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1773478650467072</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1349130716052228</v>
+        <v>0.1358163420613195</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2259723326691317</v>
+        <v>0.2192030950568169</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>273</v>
@@ -2912,19 +2912,19 @@
         <v>299456</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>267011</v>
+        <v>269778</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>330635</v>
+        <v>333878</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2793045387335734</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.249043517531545</v>
+        <v>0.2516240127329786</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3083856951905308</v>
+        <v>0.311410458876412</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>323</v>
@@ -2933,19 +2933,19 @@
         <v>350380</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>315028</v>
+        <v>317079</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>382248</v>
+        <v>380861</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2577665914827189</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2317589981098648</v>
+        <v>0.2332675348000189</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2812110499959301</v>
+        <v>0.2801906391506994</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>34739</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24709</v>
+        <v>24144</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47720</v>
+        <v>47706</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1209818130081733</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08605044941198389</v>
+        <v>0.08408450923224013</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1661882181074198</v>
+        <v>0.1661380801282877</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>191</v>
@@ -2983,19 +2983,19 @@
         <v>211172</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>185687</v>
+        <v>184822</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>241667</v>
+        <v>239869</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1969615358913301</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1731917465929664</v>
+        <v>0.172385258698075</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2254048307819686</v>
+        <v>0.2237281449387206</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>223</v>
@@ -3004,19 +3004,19 @@
         <v>245911</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>218166</v>
+        <v>217534</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>277261</v>
+        <v>274991</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1809111175673869</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.160499945330165</v>
+        <v>0.1600348147743099</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2039748922174148</v>
+        <v>0.2023047668057172</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>69221</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54156</v>
+        <v>55610</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>84698</v>
+        <v>85181</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2410656973886714</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1886024323474189</v>
+        <v>0.1936652664677248</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.294966687506459</v>
+        <v>0.2966494871398086</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>187</v>
@@ -3054,19 +3054,19 @@
         <v>202299</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>177273</v>
+        <v>178282</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>230883</v>
+        <v>231028</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1886857337910024</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1653442495693179</v>
+        <v>0.1662848919740882</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2153464645017217</v>
+        <v>0.2154813618577157</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>252</v>
@@ -3075,19 +3075,19 @@
         <v>271520</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>244513</v>
+        <v>242732</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>307640</v>
+        <v>302508</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1997507955684503</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1798825423707095</v>
+        <v>0.1785720690870814</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2263236523087421</v>
+        <v>0.2225478935662394</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>61231</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>49309</v>
+        <v>47606</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78645</v>
+        <v>76526</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2132411128305527</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.171720520403614</v>
+        <v>0.1657892773280904</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2738867801655486</v>
+        <v>0.2665067232417954</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>151</v>
@@ -3125,19 +3125,19 @@
         <v>164867</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>142571</v>
+        <v>141619</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>191264</v>
+        <v>190373</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1537723939564269</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1329775421657242</v>
+        <v>0.1320888241836118</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1783937330808278</v>
+        <v>0.1775620560405128</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>210</v>
@@ -3146,19 +3146,19 @@
         <v>226098</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>198634</v>
+        <v>199511</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>256605</v>
+        <v>253768</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1663349274706191</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.146130584755921</v>
+        <v>0.1467756289566302</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.188778624215852</v>
+        <v>0.1866913775774703</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>71029</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>56834</v>
+        <v>57443</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>85066</v>
+        <v>86831</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2473635117258953</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1979274394505895</v>
+        <v>0.2000484638843913</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2962483223191183</v>
+        <v>0.3023945074190292</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -3196,19 +3196,19 @@
         <v>194354</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>169120</v>
+        <v>169989</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>224183</v>
+        <v>223053</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1812757976276673</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1577393688409171</v>
+        <v>0.1585504416503351</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2090973161214547</v>
+        <v>0.2080430664956135</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>247</v>
@@ -3217,19 +3217,19 @@
         <v>265384</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>235188</v>
+        <v>236190</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>294708</v>
+        <v>295296</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1952365679108247</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1730222207340153</v>
+        <v>0.1737597428371001</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2168097633154413</v>
+        <v>0.2172427287376859</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>823492</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>770719</v>
+        <v>774164</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>873236</v>
+        <v>872493</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2453069637827401</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2295865799246914</v>
+        <v>0.2306128085148986</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2601250683906829</v>
+        <v>0.2599038220963932</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>784</v>
@@ -3342,19 +3342,19 @@
         <v>832908</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>782311</v>
+        <v>779617</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>882513</v>
+        <v>884678</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2376834717228729</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2232446394588762</v>
+        <v>0.2224760202933253</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2518388318236511</v>
+        <v>0.2524568681619052</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1579</v>
@@ -3363,19 +3363,19 @@
         <v>1656400</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1584990</v>
+        <v>1589023</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1733069</v>
+        <v>1724302</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2414133911158675</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2310056697867189</v>
+        <v>0.2315934488866815</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2525876391851278</v>
+        <v>0.2513098511694954</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>634047</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>590169</v>
+        <v>592212</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>679512</v>
+        <v>680437</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1888740211861039</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1758033444858019</v>
+        <v>0.1764117920798757</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2024172759840061</v>
+        <v>0.2026929683716719</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>601</v>
@@ -3413,19 +3413,19 @@
         <v>639292</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>590825</v>
+        <v>590092</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>684627</v>
+        <v>684441</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.182432123942515</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1686012867253649</v>
+        <v>0.1683919554976608</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1953691178472996</v>
+        <v>0.1953161086285691</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1207</v>
@@ -3434,19 +3434,19 @@
         <v>1273340</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1201455</v>
+        <v>1208314</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1333660</v>
+        <v>1337825</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1855839285574934</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1751069792649239</v>
+        <v>0.1761067293402108</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1943753289812191</v>
+        <v>0.1949823489681425</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>722132</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>673068</v>
+        <v>675581</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>771663</v>
+        <v>772957</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2151132216068822</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2004977676432138</v>
+        <v>0.2012464337854637</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2298677753667899</v>
+        <v>0.2302534456669804</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>699</v>
@@ -3484,19 +3484,19 @@
         <v>741203</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>696099</v>
+        <v>697744</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>799343</v>
+        <v>795008</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2115138811460921</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1986427727769552</v>
+        <v>0.1991121998522725</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2281050237470893</v>
+        <v>0.2268679919661345</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1386</v>
@@ -3505,19 +3505,19 @@
         <v>1463335</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1403785</v>
+        <v>1403629</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1537943</v>
+        <v>1541338</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2132749179099875</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2045958532506569</v>
+        <v>0.2045730483383285</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2241488261708255</v>
+        <v>0.2246436377822362</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>606249</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>561017</v>
+        <v>563171</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>651882</v>
+        <v>649935</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1805931927173947</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1671191694128134</v>
+        <v>0.1677610370749524</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1941868216054064</v>
+        <v>0.1936066849059021</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>603</v>
@@ -3555,19 +3555,19 @@
         <v>636722</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>588498</v>
+        <v>588455</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>679720</v>
+        <v>681111</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1816985635799852</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1679370541962921</v>
+        <v>0.1679248894623824</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1939687433488154</v>
+        <v>0.1943657422239206</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1183</v>
@@ -3576,19 +3576,19 @@
         <v>1242970</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1181820</v>
+        <v>1178389</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1312602</v>
+        <v>1306887</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1811577426301567</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1722452648504239</v>
+        <v>0.1717453005766146</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1913062188201508</v>
+        <v>0.1904733664118383</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>571065</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>524368</v>
+        <v>524516</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>615301</v>
+        <v>615712</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.170112600706879</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1562020207003616</v>
+        <v>0.1562460768888349</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1832898546515621</v>
+        <v>0.1834122907952005</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>614</v>
@@ -3626,19 +3626,19 @@
         <v>654150</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>605173</v>
+        <v>611138</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>703077</v>
+        <v>704969</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1866719596085348</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.172695604309851</v>
+        <v>0.174397909000168</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.200634093725296</v>
+        <v>0.2011738595653523</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1145</v>
@@ -3647,19 +3647,19 @@
         <v>1225215</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1162501</v>
+        <v>1160591</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1292184</v>
+        <v>1286990</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1785700197864948</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1694297082645817</v>
+        <v>0.1691512595740811</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.188330413086812</v>
+        <v>0.1875733496173511</v>
       </c>
     </row>
     <row r="45">
